--- a/exports/praat_hume_comparison.xlsx
+++ b/exports/praat_hume_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,109 +1085,109 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>id_010_neg</t>
+          <t>id_008_neg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.203</v>
+        <v>0.212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242</v>
+        <v>0.317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213</v>
+        <v>0.195</v>
       </c>
       <c r="E18" t="n">
-        <v>0.152</v>
+        <v>0.168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.208</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.293</v>
+        <v>0.218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
       <c r="I18" t="n">
-        <v>0.182</v>
+        <v>0.218</v>
       </c>
       <c r="J18" t="n">
-        <v>0.189</v>
+        <v>0.201</v>
       </c>
       <c r="K18" t="n">
-        <v>0.131</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>id_010_pos</t>
+          <t>id_008_pos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.203</v>
+        <v>0.208</v>
       </c>
       <c r="C19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.202</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.189</v>
-      </c>
       <c r="K19" t="n">
-        <v>0.111</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>id_011_neg</t>
+          <t>id_009_neg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.209</v>
+        <v>0.202</v>
       </c>
       <c r="G20" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="H20" t="n">
-        <v>0.186</v>
+        <v>0.192</v>
       </c>
       <c r="I20" t="n">
         <v>0.12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.187</v>
+        <v>0.191</v>
       </c>
       <c r="K20" t="n">
         <v>0.13</v>
@@ -1196,257 +1196,257 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>id_011_pos</t>
+          <t>id_009_pos</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26</v>
+        <v>0.228</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209</v>
+        <v>0.213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.14</v>
+        <v>0.129</v>
       </c>
       <c r="F21" t="n">
-        <v>0.202</v>
+        <v>0.207</v>
       </c>
       <c r="G21" t="n">
-        <v>0.27</v>
+        <v>0.416</v>
       </c>
       <c r="H21" t="n">
-        <v>0.193</v>
+        <v>0.189</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16</v>
+        <v>0.129</v>
       </c>
       <c r="J21" t="n">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="K21" t="n">
-        <v>0.17</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>id_012_neg</t>
+          <t>id_010_neg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.209</v>
+        <v>0.203</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32</v>
+        <v>0.242</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202</v>
+        <v>0.213</v>
       </c>
       <c r="E22" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.207</v>
+        <v>0.208</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0.293</v>
       </c>
       <c r="H22" t="n">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="I22" t="n">
-        <v>0.14</v>
+        <v>0.182</v>
       </c>
       <c r="J22" t="n">
-        <v>0.193</v>
+        <v>0.189</v>
       </c>
       <c r="K22" t="n">
-        <v>0.14</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>id_012_pos</t>
+          <t>id_010_pos</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.203</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28</v>
+        <v>0.202</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211</v>
+        <v>0.212</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12</v>
+        <v>0.172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.213</v>
+        <v>0.206</v>
       </c>
       <c r="G23" t="n">
-        <v>0.36</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1</v>
+        <v>0.182</v>
       </c>
       <c r="J23" t="n">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="K23" t="n">
-        <v>0.14</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>id_013_neg</t>
+          <t>id_011_neg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.323</v>
+        <v>0.16</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="E24" t="n">
-        <v>0.131</v>
+        <v>0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.204</v>
+        <v>0.209</v>
       </c>
       <c r="G24" t="n">
-        <v>0.222</v>
+        <v>0.49</v>
       </c>
       <c r="H24" t="n">
-        <v>0.191</v>
+        <v>0.186</v>
       </c>
       <c r="I24" t="n">
-        <v>0.192</v>
+        <v>0.12</v>
       </c>
       <c r="J24" t="n">
-        <v>0.191</v>
+        <v>0.187</v>
       </c>
       <c r="K24" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>id_013_pos</t>
+          <t>id_011_pos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="C25" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.208</v>
+        <v>0.202</v>
       </c>
       <c r="G25" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="H25" t="n">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
       <c r="I25" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="J25" t="n">
-        <v>0.188</v>
+        <v>0.19</v>
       </c>
       <c r="K25" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>id_014_neg</t>
+          <t>id_012_neg</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.209</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="D26" t="n">
-        <v>0.195</v>
+        <v>0.202</v>
       </c>
       <c r="E26" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F26" t="n">
-        <v>0.199</v>
+        <v>0.207</v>
       </c>
       <c r="G26" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H26" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="I26" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="J26" t="n">
-        <v>0.202</v>
+        <v>0.193</v>
       </c>
       <c r="K26" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>id_014_pos</t>
+          <t>id_012_pos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.21</v>
+        <v>0.203</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194</v>
+        <v>0.211</v>
       </c>
       <c r="E27" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.199</v>
+        <v>0.213</v>
       </c>
       <c r="G27" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="H27" t="n">
-        <v>0.194</v>
+        <v>0.185</v>
       </c>
       <c r="I27" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.202</v>
+        <v>0.188</v>
       </c>
       <c r="K27" t="n">
         <v>0.14</v>
@@ -1455,75 +1455,297 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>id_015_neg</t>
+          <t>id_013_neg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.209</v>
+        <v>0.205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.327</v>
+        <v>0.323</v>
       </c>
       <c r="D28" t="n">
-        <v>0.198</v>
+        <v>0.21</v>
       </c>
       <c r="E28" t="n">
-        <v>0.178</v>
+        <v>0.131</v>
       </c>
       <c r="F28" t="n">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="G28" t="n">
-        <v>0.257</v>
+        <v>0.222</v>
       </c>
       <c r="H28" t="n">
-        <v>0.195</v>
+        <v>0.191</v>
       </c>
       <c r="I28" t="n">
-        <v>0.139</v>
+        <v>0.192</v>
       </c>
       <c r="J28" t="n">
-        <v>0.197</v>
+        <v>0.191</v>
       </c>
       <c r="K28" t="n">
-        <v>0.099</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>id_013_pos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>id_014_neg</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>id_014_pos</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>id_015_neg</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>id_015_pos</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>0.208</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>0.354</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>0.196</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E33" t="n">
         <v>0.121</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F33" t="n">
         <v>0.201</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G33" t="n">
         <v>0.242</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>0.194</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>0.152</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J33" t="n">
         <v>0.201</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K33" t="n">
         <v>0.131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>id_016_neg</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>id_016_pos</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
